--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7153986666666667</v>
+        <v>1.980997</v>
       </c>
       <c r="H2">
-        <v>2.146196</v>
+        <v>5.942991000000001</v>
       </c>
       <c r="I2">
-        <v>0.1657933056830393</v>
+        <v>0.2896906247626733</v>
       </c>
       <c r="J2">
-        <v>0.1657933056830393</v>
+        <v>0.2896906247626732</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4327703333333333</v>
+        <v>0.07195966666666666</v>
       </c>
       <c r="N2">
-        <v>1.298311</v>
+        <v>0.215879</v>
       </c>
       <c r="O2">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660251</v>
       </c>
       <c r="P2">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660252</v>
       </c>
       <c r="Q2">
-        <v>0.3096033194395555</v>
+        <v>0.1425518837876667</v>
       </c>
       <c r="R2">
-        <v>2.786429874956</v>
+        <v>1.282966954089</v>
       </c>
       <c r="S2">
-        <v>0.08086848007403127</v>
+        <v>0.02181397028381376</v>
       </c>
       <c r="T2">
-        <v>0.08086848007403129</v>
+        <v>0.02181397028381376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7153986666666667</v>
+        <v>1.980997</v>
       </c>
       <c r="H3">
-        <v>2.146196</v>
+        <v>5.942991000000001</v>
       </c>
       <c r="I3">
-        <v>0.1657933056830393</v>
+        <v>0.2896906247626733</v>
       </c>
       <c r="J3">
-        <v>0.1657933056830393</v>
+        <v>0.2896906247626732</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.786507</v>
       </c>
       <c r="O3">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="P3">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="Q3">
-        <v>0.1875553530413333</v>
+        <v>0.5193560024930001</v>
       </c>
       <c r="R3">
-        <v>1.687998177372</v>
+        <v>4.674204022437</v>
       </c>
       <c r="S3">
-        <v>0.04898951457515659</v>
+        <v>0.0794743366701324</v>
       </c>
       <c r="T3">
-        <v>0.04898951457515659</v>
+        <v>0.07947433667013239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7153986666666667</v>
+        <v>1.980997</v>
       </c>
       <c r="H4">
-        <v>2.146196</v>
+        <v>5.942991000000001</v>
       </c>
       <c r="I4">
-        <v>0.1657933056830393</v>
+        <v>0.2896906247626733</v>
       </c>
       <c r="J4">
-        <v>0.1657933056830393</v>
+        <v>0.2896906247626732</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.192309</v>
+        <v>0.6214993333333333</v>
       </c>
       <c r="N4">
-        <v>0.576927</v>
+        <v>1.864498</v>
       </c>
       <c r="O4">
-        <v>0.2167476598998025</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="P4">
-        <v>0.2167476598998026</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="Q4">
-        <v>0.137577602188</v>
+        <v>1.231188314835334</v>
       </c>
       <c r="R4">
-        <v>1.238198419692</v>
+        <v>11.080694833518</v>
       </c>
       <c r="S4">
-        <v>0.0359353110338514</v>
+        <v>0.1884023178087271</v>
       </c>
       <c r="T4">
-        <v>0.0359353110338514</v>
+        <v>0.1884023178087271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>6.156342</v>
       </c>
       <c r="I5">
-        <v>0.4755764576466144</v>
+        <v>0.3000904023298512</v>
       </c>
       <c r="J5">
-        <v>0.4755764576466144</v>
+        <v>0.3000904023298512</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4327703333333333</v>
+        <v>0.07195966666666666</v>
       </c>
       <c r="N5">
-        <v>1.298311</v>
+        <v>0.215879</v>
       </c>
       <c r="O5">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660251</v>
       </c>
       <c r="P5">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660252</v>
       </c>
       <c r="Q5">
-        <v>0.8880940598179999</v>
+        <v>0.147669439402</v>
       </c>
       <c r="R5">
-        <v>7.992846538362</v>
+        <v>1.329024954618</v>
       </c>
       <c r="S5">
-        <v>0.2319704352985104</v>
+        <v>0.02259708309250251</v>
       </c>
       <c r="T5">
-        <v>0.2319704352985104</v>
+        <v>0.02259708309250251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.156342</v>
       </c>
       <c r="I6">
-        <v>0.4755764576466144</v>
+        <v>0.3000904023298512</v>
       </c>
       <c r="J6">
-        <v>0.4755764576466144</v>
+        <v>0.3000904023298512</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.786507</v>
       </c>
       <c r="O6">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="P6">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="Q6">
         <v>0.5380006752659999</v>
@@ -821,10 +821,10 @@
         <v>4.842006077394</v>
       </c>
       <c r="S6">
-        <v>0.1405259380497628</v>
+        <v>0.08232743357081916</v>
       </c>
       <c r="T6">
-        <v>0.1405259380497628</v>
+        <v>0.08232743357081916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>6.156342</v>
       </c>
       <c r="I7">
-        <v>0.4755764576466144</v>
+        <v>0.3000904023298512</v>
       </c>
       <c r="J7">
-        <v>0.4755764576466144</v>
+        <v>0.3000904023298512</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.192309</v>
+        <v>0.6214993333333333</v>
       </c>
       <c r="N7">
-        <v>0.576927</v>
+        <v>1.864498</v>
       </c>
       <c r="O7">
-        <v>0.2167476598998025</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="P7">
-        <v>0.2167476598998026</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="Q7">
-        <v>0.394639991226</v>
+        <v>1.275387482924</v>
       </c>
       <c r="R7">
-        <v>3.551759921034</v>
+        <v>11.478487346316</v>
       </c>
       <c r="S7">
-        <v>0.1030800842983412</v>
+        <v>0.1951658856665296</v>
       </c>
       <c r="T7">
-        <v>0.1030800842983412</v>
+        <v>0.1951658856665296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.383080666666667</v>
+        <v>2.610033666666667</v>
       </c>
       <c r="H8">
-        <v>4.149242</v>
+        <v>7.830101</v>
       </c>
       <c r="I8">
-        <v>0.3205282962315208</v>
+        <v>0.3816776519844691</v>
       </c>
       <c r="J8">
-        <v>0.3205282962315209</v>
+        <v>0.3816776519844691</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4327703333333333</v>
+        <v>0.07195966666666666</v>
       </c>
       <c r="N8">
-        <v>1.298311</v>
+        <v>0.215879</v>
       </c>
       <c r="O8">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660251</v>
       </c>
       <c r="P8">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660252</v>
       </c>
       <c r="Q8">
-        <v>0.5985562811402222</v>
+        <v>0.1878171526421111</v>
       </c>
       <c r="R8">
-        <v>5.387006530262</v>
+        <v>1.690354373779</v>
       </c>
       <c r="S8">
-        <v>0.1563430805011908</v>
+        <v>0.02874067797397983</v>
       </c>
       <c r="T8">
-        <v>0.1563430805011908</v>
+        <v>0.02874067797397984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.383080666666667</v>
+        <v>2.610033666666667</v>
       </c>
       <c r="H9">
-        <v>4.149242</v>
+        <v>7.830101</v>
       </c>
       <c r="I9">
-        <v>0.3205282962315208</v>
+        <v>0.3816776519844691</v>
       </c>
       <c r="J9">
-        <v>0.3205282962315209</v>
+        <v>0.3816776519844691</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.786507</v>
       </c>
       <c r="O9">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="P9">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="Q9">
-        <v>0.3626008752993333</v>
+        <v>0.6842699163563334</v>
       </c>
       <c r="R9">
-        <v>3.263407877694</v>
+        <v>6.158429247207</v>
       </c>
       <c r="S9">
-        <v>0.09471145759047721</v>
+        <v>0.1047102516283703</v>
       </c>
       <c r="T9">
-        <v>0.09471145759047722</v>
+        <v>0.1047102516283703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.383080666666667</v>
+        <v>2.610033666666667</v>
       </c>
       <c r="H10">
-        <v>4.149242</v>
+        <v>7.830101</v>
       </c>
       <c r="I10">
-        <v>0.3205282962315208</v>
+        <v>0.3816776519844691</v>
       </c>
       <c r="J10">
-        <v>0.3205282962315209</v>
+        <v>0.3816776519844691</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.192309</v>
+        <v>0.6214993333333333</v>
       </c>
       <c r="N10">
-        <v>0.576927</v>
+        <v>1.864498</v>
       </c>
       <c r="O10">
-        <v>0.2167476598998025</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="P10">
-        <v>0.2167476598998026</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="Q10">
-        <v>0.265978859926</v>
+        <v>1.622134183810889</v>
       </c>
       <c r="R10">
-        <v>2.393809739334</v>
+        <v>14.599207654298</v>
       </c>
       <c r="S10">
-        <v>0.06947375813985285</v>
+        <v>0.248226722382119</v>
       </c>
       <c r="T10">
-        <v>0.06947375813985286</v>
+        <v>0.2482267223821189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.16441</v>
+        <v>0.1951746666666667</v>
       </c>
       <c r="H11">
-        <v>0.4932300000000001</v>
+        <v>0.585524</v>
       </c>
       <c r="I11">
-        <v>0.03810194043882547</v>
+        <v>0.02854132092300653</v>
       </c>
       <c r="J11">
-        <v>0.03810194043882547</v>
+        <v>0.02854132092300652</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.4327703333333333</v>
+        <v>0.07195966666666666</v>
       </c>
       <c r="N11">
-        <v>1.298311</v>
+        <v>0.215879</v>
       </c>
       <c r="O11">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660251</v>
       </c>
       <c r="P11">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660252</v>
       </c>
       <c r="Q11">
-        <v>0.07115177050333334</v>
+        <v>0.01404470395511111</v>
       </c>
       <c r="R11">
-        <v>0.6403659345300001</v>
+        <v>0.126402335596</v>
       </c>
       <c r="S11">
-        <v>0.01858486383672062</v>
+        <v>0.002149187696306417</v>
       </c>
       <c r="T11">
-        <v>0.01858486383672062</v>
+        <v>0.002149187696306417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.16441</v>
+        <v>0.1951746666666667</v>
       </c>
       <c r="H12">
-        <v>0.4932300000000001</v>
+        <v>0.585524</v>
       </c>
       <c r="I12">
-        <v>0.03810194043882547</v>
+        <v>0.02854132092300653</v>
       </c>
       <c r="J12">
-        <v>0.03810194043882547</v>
+        <v>0.02854132092300652</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.786507</v>
       </c>
       <c r="O12">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="P12">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="Q12">
-        <v>0.04310320529</v>
+        <v>0.05116874718533334</v>
       </c>
       <c r="R12">
-        <v>0.38792884761</v>
+        <v>0.460518724668</v>
       </c>
       <c r="S12">
-        <v>0.01125857017434777</v>
+        <v>0.007830086147605239</v>
       </c>
       <c r="T12">
-        <v>0.01125857017434777</v>
+        <v>0.007830086147605237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.16441</v>
+        <v>0.1951746666666667</v>
       </c>
       <c r="H13">
-        <v>0.4932300000000001</v>
+        <v>0.585524</v>
       </c>
       <c r="I13">
-        <v>0.03810194043882547</v>
+        <v>0.02854132092300653</v>
       </c>
       <c r="J13">
-        <v>0.03810194043882547</v>
+        <v>0.02854132092300652</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.192309</v>
+        <v>0.6214993333333333</v>
       </c>
       <c r="N13">
-        <v>0.576927</v>
+        <v>1.864498</v>
       </c>
       <c r="O13">
-        <v>0.2167476598998025</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="P13">
-        <v>0.2167476598998026</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="Q13">
-        <v>0.03161752269</v>
+        <v>0.1213009252168889</v>
       </c>
       <c r="R13">
-        <v>0.28455770421</v>
+        <v>1.091708326952</v>
       </c>
       <c r="S13">
-        <v>0.008258506427757077</v>
+        <v>0.01856204707909487</v>
       </c>
       <c r="T13">
-        <v>0.008258506427757077</v>
+        <v>0.01856204707909487</v>
       </c>
     </row>
   </sheetData>
